--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,27 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
@@ -85,73 +85,70 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -509,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -578,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>121</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L4">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>0.9375</v>
-      </c>
-      <c r="L4">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3928571428571428</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,195 +793,123 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8203125</v>
+      </c>
+      <c r="L8">
+        <v>105</v>
+      </c>
+      <c r="M8">
+        <v>105</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2918454935622318</v>
-      </c>
-      <c r="C8">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>68</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>165</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.85</v>
-      </c>
-      <c r="L8">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L9">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.15</v>
-      </c>
-      <c r="C10">
+      <c r="K10">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L10">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <v>46</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>12</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +921,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1022,21 +947,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7413793103448276</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7307692307692307</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1074,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1126,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6712328767123288</v>
+        <v>0.6625</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6470588235294118</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1230,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1256,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1282,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5600000000000001</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5454545454545454</v>
+        <v>0.4882506527415144</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5416666666666666</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1360,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5069444444444444</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L26">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1386,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1412,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4883720930232558</v>
+        <v>0.390625</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4741784037558686</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L29">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.358695652173913</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1516,7 +1441,59 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>59</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.301255230125523</v>
+      </c>
+      <c r="L32">
+        <v>72</v>
+      </c>
+      <c r="M32">
+        <v>72</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.00979934671021932</v>
+      </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>2122</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,97 +58,91 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +511,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5856164383561644</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C4">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D4">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2063492063492063</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1705426356589147</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -825,13 +819,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8203125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,13 +845,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +871,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -895,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -903,13 +897,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -921,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -929,13 +923,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -947,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -955,13 +949,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7222222222222222</v>
+        <v>0.725</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -973,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -981,13 +975,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7058823529411765</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -999,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1033,13 +1027,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6944444444444444</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1085,13 +1079,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1103,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1111,13 +1105,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1129,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1189,13 +1183,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5425531914893617</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1207,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1215,13 +1209,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5238095238095238</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1233,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1241,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.4882506527415144</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1259,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1267,13 +1261,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4558823529411765</v>
+        <v>0.4960835509138381</v>
       </c>
       <c r="L25">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="M25">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1285,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1293,13 +1287,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4269662921348314</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1311,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1319,13 +1313,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.423728813559322</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L27">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="M27">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1337,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1345,13 +1339,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.390625</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1363,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1371,13 +1365,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.3692307692307693</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1389,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1397,13 +1391,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.3561643835616438</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1415,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1423,13 +1417,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3076923076923077</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1441,59 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>0.301255230125523</v>
-      </c>
-      <c r="L32">
-        <v>72</v>
-      </c>
-      <c r="M32">
-        <v>72</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33">
-        <v>0.00979934671021932</v>
-      </c>
-      <c r="L33">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>2122</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
